--- a/Addition of Navy Reports to Calibration Report Utility/Supporting Documentation/Report Layouts/Report Layouts.xlsx
+++ b/Addition of Navy Reports to Calibration Report Utility/Supporting Documentation/Report Layouts/Report Layouts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.jci.com/personal/jbeachsc_jci_com/Documents/Documents/Projects/Addition of Navy Reports to Calibration Report Utility/Supporting Documentation/Report Layouts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="455" documentId="8_{89E46451-E8CB-4C22-B0BC-51853277BA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEC3B5F1-35B4-4962-B81D-8BD60E836A6F}"/>
+  <xr:revisionPtr revIDLastSave="464" documentId="8_{89E46451-E8CB-4C22-B0BC-51853277BA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F85051A-DAD8-4CF8-9527-61EDC7FEF6DC}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-345" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{75EB7065-937A-4962-9693-1BEF040441E0}"/>
+    <workbookView xWindow="28680" yWindow="-345" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{75EB7065-937A-4962-9693-1BEF040441E0}"/>
   </bookViews>
   <sheets>
     <sheet name="110 Ton" sheetId="8" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="167">
   <si>
     <t>Instrument Serial Number</t>
   </si>
@@ -4748,10 +4748,6 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7473,8 +7469,8 @@
   </sheetPr>
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -8674,7 +8670,7 @@
   </sheetPr>
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I51" sqref="I9:I51"/>
     </sheetView>
   </sheetViews>
@@ -10838,7 +10834,7 @@
   </sheetPr>
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I52" sqref="I9:I52"/>
     </sheetView>
   </sheetViews>
@@ -12065,10 +12061,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -12082,10 +12078,11 @@
     <col min="7" max="7" width="32.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="2"/>
+    <col min="10" max="10" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="93" t="str">
         <f>'[7]Report WorkSheet'!B1:E1</f>
@@ -12096,7 +12093,7 @@
       <c r="E1" s="93"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="93" t="str">
         <f>CONCATENATE('[7]Report WorkSheet'!B2,'[7]Report WorkSheet'!C2)</f>
@@ -12107,7 +12104,7 @@
       <c r="E2" s="93"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="93" t="str">
         <f>CONCATENATE('[7]Report WorkSheet'!B3,'[7]Report WorkSheet'!C3)</f>
@@ -12118,7 +12115,7 @@
       <c r="E3" s="93"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="93" t="str">
         <f>CONCATENATE('[7]Report WorkSheet'!B4,'[7]Report WorkSheet'!C4)</f>
@@ -12129,7 +12126,7 @@
       <c r="E4" s="93"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="93" t="str">
         <f>CONCATENATE('[7]Report WorkSheet'!B5,'[7]Report WorkSheet'!C5)</f>
@@ -12140,14 +12137,14 @@
       <c r="E5" s="93"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="90" t="s">
         <v>0</v>
       </c>
@@ -12166,7 +12163,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="90"/>
       <c r="C8" s="90"/>
       <c r="D8" s="7" t="s">
@@ -12182,7 +12179,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
@@ -12196,7 +12193,7 @@
         <v>[DAQ2 RTD Temperatures]</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
         <f>'[7]Report WorkSheet'!B10</f>
         <v>0</v>
@@ -12223,8 +12220,11 @@
         <f>G10&amp;"="&amp;C10</f>
         <v>COND_WTR_E_TEMP_TET-CW-2A=COND WATER ENTERING TEMP A</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="9">
         <f>'[7]Report WorkSheet'!B11</f>
         <v>0</v>
@@ -12252,7 +12252,7 @@
         <v>COND_WTR_E_TEMP_TET-CW-2B=COND WATER ENTERING TEMP B</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <f>'[7]Report WorkSheet'!B12</f>
         <v>0</v>
@@ -12280,7 +12280,7 @@
         <v>COND_WTR_L_TEMP_TET-CW-3A=COND WATER LEAVING TEMP A</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="9">
         <f>'[7]Report WorkSheet'!B13</f>
         <v>0</v>
@@ -12308,7 +12308,7 @@
         <v>COND_WTR_L_TEMP_TET-CW-3B=COND WATER LEAVING TEMP B</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="9">
         <f>'[7]Report WorkSheet'!B14</f>
         <v>0</v>
@@ -12336,7 +12336,7 @@
         <v>EVAP_WTR_E_TEMP_TET-EW-2A=EVAP WATER ENTERING TEMP A</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="9">
         <f>'[7]Report WorkSheet'!B15</f>
         <v>0</v>
@@ -12364,7 +12364,7 @@
         <v>EVAP_WTR_E_TEMP_TET-EW-2B=EVAP WATER ENTERING TEMP B</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="9">
         <f>'[7]Report WorkSheet'!B16</f>
         <v>0</v>
